--- a/va_facility_data_2025-02-20/Louis A. Johnson Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Louis%20A.%20Johnson%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Louis A. Johnson Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Louis%20A.%20Johnson%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R1b3e365816d948a1af2c47ac1e3329f7"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R65f47f79de9348cf9b625e31c53db1b7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Recfdb01e0d9f4243820491cb45ab054c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R9af9819f1b974cb7a83250e7becf7aac"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ref68b300cdfb47508dce24fb3becdac1"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R7365e4300b4a4d8fb6137e4f5348d36a"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rcb6cef31f7bf4adcbcc02e3a23d6c4c3"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R84bef8bdf8454627a3a0ed6944826ef3"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf14bc2a492394ffba6aec5dcfe3b6068"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rb825e6c0ee7f463cbf19428f916025d1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5bb0568e2480453c81364c50135ba86c"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R713262540a74420f930a72c907b9f591"/>
   </x:sheets>
 </x:workbook>
 </file>
